--- a/ANYCOLOR Inc.xlsx
+++ b/ANYCOLOR Inc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,2684 +468,5456 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4155</v>
+        <v>4055</v>
       </c>
       <c r="C2" t="n">
-        <v>4250</v>
+        <v>4080</v>
       </c>
       <c r="D2" t="n">
-        <v>4110</v>
+        <v>3980</v>
       </c>
       <c r="E2" t="n">
-        <v>4185</v>
+        <v>4020</v>
       </c>
       <c r="F2" t="n">
-        <v>569500</v>
+        <v>613000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4170</v>
+        <v>4055</v>
       </c>
       <c r="C3" t="n">
-        <v>4280</v>
+        <v>4080</v>
       </c>
       <c r="D3" t="n">
-        <v>4160</v>
+        <v>3980</v>
       </c>
       <c r="E3" t="n">
-        <v>4215</v>
+        <v>4020</v>
       </c>
       <c r="F3" t="n">
-        <v>384200</v>
+        <v>613000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4265</v>
+        <v>4025</v>
       </c>
       <c r="C4" t="n">
-        <v>4370</v>
+        <v>4080</v>
       </c>
       <c r="D4" t="n">
-        <v>4165</v>
+        <v>3975</v>
       </c>
       <c r="E4" t="n">
-        <v>4180</v>
+        <v>4060</v>
       </c>
       <c r="F4" t="n">
-        <v>944500</v>
+        <v>842700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4315</v>
+        <v>4025</v>
       </c>
       <c r="C5" t="n">
-        <v>4345</v>
+        <v>4080</v>
       </c>
       <c r="D5" t="n">
-        <v>4225</v>
+        <v>3975</v>
       </c>
       <c r="E5" t="n">
-        <v>4270</v>
+        <v>4060</v>
       </c>
       <c r="F5" t="n">
-        <v>524200</v>
+        <v>842700</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4300</v>
+        <v>4185</v>
       </c>
       <c r="C6" t="n">
-        <v>4385</v>
+        <v>4190</v>
       </c>
       <c r="D6" t="n">
-        <v>4270</v>
+        <v>3930</v>
       </c>
       <c r="E6" t="n">
-        <v>4380</v>
+        <v>3955</v>
       </c>
       <c r="F6" t="n">
-        <v>512100</v>
+        <v>1270000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4270</v>
+        <v>4185</v>
       </c>
       <c r="C7" t="n">
-        <v>4280</v>
+        <v>4190</v>
       </c>
       <c r="D7" t="n">
-        <v>4160</v>
+        <v>3930</v>
       </c>
       <c r="E7" t="n">
-        <v>4230</v>
+        <v>3955</v>
       </c>
       <c r="F7" t="n">
-        <v>596700</v>
+        <v>1270000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>4155</v>
       </c>
       <c r="C8" t="n">
-        <v>4260</v>
+        <v>4250</v>
       </c>
       <c r="D8" t="n">
-        <v>4095</v>
+        <v>4110</v>
       </c>
       <c r="E8" t="n">
-        <v>4245</v>
+        <v>4185</v>
       </c>
       <c r="F8" t="n">
-        <v>509100</v>
+        <v>569500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4065</v>
+        <v>4155</v>
       </c>
       <c r="C9" t="n">
-        <v>4270</v>
+        <v>4250</v>
       </c>
       <c r="D9" t="n">
-        <v>4000</v>
+        <v>4110</v>
       </c>
       <c r="E9" t="n">
-        <v>4225</v>
+        <v>4185</v>
       </c>
       <c r="F9" t="n">
-        <v>727400</v>
+        <v>569500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4110</v>
+        <v>4170</v>
       </c>
       <c r="C10" t="n">
-        <v>4135</v>
+        <v>4280</v>
       </c>
       <c r="D10" t="n">
-        <v>3975</v>
+        <v>4160</v>
       </c>
       <c r="E10" t="n">
-        <v>4065</v>
+        <v>4215</v>
       </c>
       <c r="F10" t="n">
-        <v>1249400</v>
+        <v>384200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4180</v>
+        <v>4170</v>
       </c>
       <c r="C11" t="n">
-        <v>4225</v>
+        <v>4280</v>
       </c>
       <c r="D11" t="n">
-        <v>4130</v>
+        <v>4160</v>
       </c>
       <c r="E11" t="n">
-        <v>4160</v>
+        <v>4215</v>
       </c>
       <c r="F11" t="n">
-        <v>729900</v>
+        <v>384200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4350</v>
+        <v>4265</v>
       </c>
       <c r="C12" t="n">
         <v>4370</v>
       </c>
       <c r="D12" t="n">
-        <v>4130</v>
+        <v>4165</v>
       </c>
       <c r="E12" t="n">
         <v>4180</v>
       </c>
       <c r="F12" t="n">
-        <v>1357600</v>
+        <v>944500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4365</v>
+        <v>4265</v>
       </c>
       <c r="C13" t="n">
-        <v>4435</v>
+        <v>4370</v>
       </c>
       <c r="D13" t="n">
-        <v>4330</v>
+        <v>4165</v>
       </c>
       <c r="E13" t="n">
-        <v>4405</v>
+        <v>4180</v>
       </c>
       <c r="F13" t="n">
-        <v>311000</v>
+        <v>944500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4480</v>
+        <v>4315</v>
       </c>
       <c r="C14" t="n">
-        <v>4500</v>
+        <v>4345</v>
       </c>
       <c r="D14" t="n">
-        <v>4385</v>
+        <v>4225</v>
       </c>
       <c r="E14" t="n">
-        <v>4415</v>
+        <v>4270</v>
       </c>
       <c r="F14" t="n">
-        <v>931700</v>
+        <v>524200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4430</v>
+        <v>4315</v>
       </c>
       <c r="C15" t="n">
-        <v>4525</v>
+        <v>4345</v>
       </c>
       <c r="D15" t="n">
-        <v>4425</v>
+        <v>4225</v>
       </c>
       <c r="E15" t="n">
-        <v>4510</v>
+        <v>4270</v>
       </c>
       <c r="F15" t="n">
-        <v>336100</v>
+        <v>524200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4475</v>
+        <v>4300</v>
       </c>
       <c r="C16" t="n">
-        <v>4570</v>
+        <v>4385</v>
       </c>
       <c r="D16" t="n">
-        <v>4435</v>
+        <v>4270</v>
       </c>
       <c r="E16" t="n">
-        <v>4485</v>
+        <v>4380</v>
       </c>
       <c r="F16" t="n">
-        <v>433800</v>
+        <v>512100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="C17" t="n">
-        <v>4620</v>
+        <v>4385</v>
       </c>
       <c r="D17" t="n">
-        <v>4440</v>
+        <v>4270</v>
       </c>
       <c r="E17" t="n">
-        <v>4520</v>
+        <v>4380</v>
       </c>
       <c r="F17" t="n">
-        <v>979400</v>
+        <v>512100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4545</v>
+        <v>4270</v>
       </c>
       <c r="C18" t="n">
-        <v>4715</v>
+        <v>4280</v>
       </c>
       <c r="D18" t="n">
-        <v>4545</v>
+        <v>4160</v>
       </c>
       <c r="E18" t="n">
-        <v>4670</v>
+        <v>4230</v>
       </c>
       <c r="F18" t="n">
-        <v>1063000</v>
+        <v>596700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4505</v>
+        <v>4270</v>
       </c>
       <c r="C19" t="n">
-        <v>4570</v>
+        <v>4280</v>
       </c>
       <c r="D19" t="n">
-        <v>4410</v>
+        <v>4160</v>
       </c>
       <c r="E19" t="n">
-        <v>4535</v>
+        <v>4230</v>
       </c>
       <c r="F19" t="n">
-        <v>1335000</v>
+        <v>596700</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4470</v>
+        <v>4155</v>
       </c>
       <c r="C20" t="n">
-        <v>4550</v>
+        <v>4260</v>
       </c>
       <c r="D20" t="n">
-        <v>4405</v>
+        <v>4095</v>
       </c>
       <c r="E20" t="n">
-        <v>4420</v>
+        <v>4245</v>
       </c>
       <c r="F20" t="n">
-        <v>573400</v>
+        <v>509100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4445</v>
+        <v>4155</v>
       </c>
       <c r="C21" t="n">
-        <v>4540</v>
+        <v>4260</v>
       </c>
       <c r="D21" t="n">
-        <v>4380</v>
+        <v>4095</v>
       </c>
       <c r="E21" t="n">
-        <v>4525</v>
+        <v>4245</v>
       </c>
       <c r="F21" t="n">
-        <v>612100</v>
+        <v>509100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4430</v>
+        <v>4065</v>
       </c>
       <c r="C22" t="n">
-        <v>4535</v>
+        <v>4270</v>
       </c>
       <c r="D22" t="n">
-        <v>4425</v>
+        <v>4000</v>
       </c>
       <c r="E22" t="n">
-        <v>4445</v>
+        <v>4225</v>
       </c>
       <c r="F22" t="n">
-        <v>1047600</v>
+        <v>727400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4400</v>
+        <v>4065</v>
       </c>
       <c r="C23" t="n">
-        <v>4450</v>
+        <v>4270</v>
       </c>
       <c r="D23" t="n">
-        <v>4310</v>
+        <v>4000</v>
       </c>
       <c r="E23" t="n">
-        <v>4430</v>
+        <v>4225</v>
       </c>
       <c r="F23" t="n">
-        <v>674600</v>
+        <v>727400</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4400</v>
+        <v>4110</v>
       </c>
       <c r="C24" t="n">
-        <v>4500</v>
+        <v>4135</v>
       </c>
       <c r="D24" t="n">
-        <v>4390</v>
+        <v>3975</v>
       </c>
       <c r="E24" t="n">
-        <v>4460</v>
+        <v>4065</v>
       </c>
       <c r="F24" t="n">
-        <v>602500</v>
+        <v>1249400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4465</v>
+        <v>4110</v>
       </c>
       <c r="C25" t="n">
-        <v>4510</v>
+        <v>4135</v>
       </c>
       <c r="D25" t="n">
-        <v>4385</v>
+        <v>3975</v>
       </c>
       <c r="E25" t="n">
-        <v>4385</v>
+        <v>4065</v>
       </c>
       <c r="F25" t="n">
-        <v>843400</v>
+        <v>1249400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4725</v>
+        <v>4180</v>
       </c>
       <c r="C26" t="n">
-        <v>4730</v>
+        <v>4225</v>
       </c>
       <c r="D26" t="n">
-        <v>4470</v>
+        <v>4130</v>
       </c>
       <c r="E26" t="n">
-        <v>4495</v>
+        <v>4160</v>
       </c>
       <c r="F26" t="n">
-        <v>1645900</v>
+        <v>729900</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4710</v>
+        <v>4180</v>
       </c>
       <c r="C27" t="n">
-        <v>4760</v>
+        <v>4225</v>
       </c>
       <c r="D27" t="n">
-        <v>4660</v>
+        <v>4130</v>
       </c>
       <c r="E27" t="n">
-        <v>4730</v>
+        <v>4160</v>
       </c>
       <c r="F27" t="n">
-        <v>775700</v>
+        <v>729900</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4700</v>
+        <v>4350</v>
       </c>
       <c r="C28" t="n">
-        <v>4900</v>
+        <v>4370</v>
       </c>
       <c r="D28" t="n">
-        <v>4700</v>
+        <v>4130</v>
       </c>
       <c r="E28" t="n">
-        <v>4795</v>
+        <v>4180</v>
       </c>
       <c r="F28" t="n">
-        <v>875600</v>
+        <v>1357600</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4720</v>
+        <v>4350</v>
       </c>
       <c r="C29" t="n">
-        <v>4765</v>
+        <v>4370</v>
       </c>
       <c r="D29" t="n">
-        <v>4635</v>
+        <v>4130</v>
       </c>
       <c r="E29" t="n">
-        <v>4660</v>
+        <v>4180</v>
       </c>
       <c r="F29" t="n">
-        <v>822500</v>
+        <v>1357600</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4635</v>
+        <v>4365</v>
       </c>
       <c r="C30" t="n">
-        <v>4775</v>
+        <v>4435</v>
       </c>
       <c r="D30" t="n">
-        <v>4630</v>
+        <v>4330</v>
       </c>
       <c r="E30" t="n">
-        <v>4725</v>
+        <v>4405</v>
       </c>
       <c r="F30" t="n">
-        <v>736300</v>
+        <v>311000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4825</v>
+        <v>4365</v>
       </c>
       <c r="C31" t="n">
-        <v>4850</v>
+        <v>4435</v>
       </c>
       <c r="D31" t="n">
-        <v>4635</v>
+        <v>4330</v>
       </c>
       <c r="E31" t="n">
-        <v>4645</v>
+        <v>4405</v>
       </c>
       <c r="F31" t="n">
-        <v>1022200</v>
+        <v>311000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4980</v>
+        <v>4480</v>
       </c>
       <c r="C32" t="n">
-        <v>4980</v>
+        <v>4500</v>
       </c>
       <c r="D32" t="n">
-        <v>4825</v>
+        <v>4385</v>
       </c>
       <c r="E32" t="n">
-        <v>4850</v>
+        <v>4415</v>
       </c>
       <c r="F32" t="n">
-        <v>489500</v>
+        <v>931700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5020</v>
+        <v>4480</v>
       </c>
       <c r="C33" t="n">
-        <v>5020</v>
+        <v>4500</v>
       </c>
       <c r="D33" t="n">
-        <v>4920</v>
+        <v>4385</v>
       </c>
       <c r="E33" t="n">
-        <v>4960</v>
+        <v>4415</v>
       </c>
       <c r="F33" t="n">
-        <v>339600</v>
+        <v>931700</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5080</v>
+        <v>4430</v>
       </c>
       <c r="C34" t="n">
-        <v>5100</v>
+        <v>4525</v>
       </c>
       <c r="D34" t="n">
-        <v>4985</v>
+        <v>4425</v>
       </c>
       <c r="E34" t="n">
-        <v>5000</v>
+        <v>4510</v>
       </c>
       <c r="F34" t="n">
-        <v>360300</v>
+        <v>336100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4960</v>
+        <v>4430</v>
       </c>
       <c r="C35" t="n">
-        <v>5060</v>
+        <v>4525</v>
       </c>
       <c r="D35" t="n">
-        <v>4885</v>
+        <v>4425</v>
       </c>
       <c r="E35" t="n">
-        <v>5060</v>
+        <v>4510</v>
       </c>
       <c r="F35" t="n">
-        <v>430800</v>
+        <v>336100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5030</v>
+        <v>4475</v>
       </c>
       <c r="C36" t="n">
-        <v>5100</v>
+        <v>4570</v>
       </c>
       <c r="D36" t="n">
-        <v>4930</v>
+        <v>4435</v>
       </c>
       <c r="E36" t="n">
-        <v>4960</v>
+        <v>4485</v>
       </c>
       <c r="F36" t="n">
-        <v>807900</v>
+        <v>433800</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4890</v>
+        <v>4475</v>
       </c>
       <c r="C37" t="n">
-        <v>5040</v>
+        <v>4570</v>
       </c>
       <c r="D37" t="n">
-        <v>4850</v>
+        <v>4435</v>
       </c>
       <c r="E37" t="n">
-        <v>5030</v>
+        <v>4485</v>
       </c>
       <c r="F37" t="n">
-        <v>1364700</v>
+        <v>433800</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4695</v>
+        <v>4600</v>
       </c>
       <c r="C38" t="n">
-        <v>4780</v>
+        <v>4620</v>
       </c>
       <c r="D38" t="n">
-        <v>4660</v>
+        <v>4440</v>
       </c>
       <c r="E38" t="n">
-        <v>4775</v>
+        <v>4520</v>
       </c>
       <c r="F38" t="n">
-        <v>821500</v>
+        <v>979400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4765</v>
+        <v>4600</v>
       </c>
       <c r="C39" t="n">
-        <v>4845</v>
+        <v>4620</v>
       </c>
       <c r="D39" t="n">
-        <v>4655</v>
+        <v>4440</v>
       </c>
       <c r="E39" t="n">
-        <v>4680</v>
+        <v>4520</v>
       </c>
       <c r="F39" t="n">
-        <v>1090900</v>
+        <v>979400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4690</v>
+        <v>4545</v>
       </c>
       <c r="C40" t="n">
-        <v>4820</v>
+        <v>4715</v>
       </c>
       <c r="D40" t="n">
-        <v>4665</v>
+        <v>4545</v>
       </c>
       <c r="E40" t="n">
-        <v>4720</v>
+        <v>4670</v>
       </c>
       <c r="F40" t="n">
-        <v>1002100</v>
+        <v>1063000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4855</v>
+        <v>4545</v>
       </c>
       <c r="C41" t="n">
-        <v>4965</v>
+        <v>4715</v>
       </c>
       <c r="D41" t="n">
-        <v>4680</v>
+        <v>4545</v>
       </c>
       <c r="E41" t="n">
-        <v>4760</v>
+        <v>4670</v>
       </c>
       <c r="F41" t="n">
-        <v>1837800</v>
+        <v>1063000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4625</v>
+        <v>4505</v>
       </c>
       <c r="C42" t="n">
-        <v>4775</v>
+        <v>4570</v>
       </c>
       <c r="D42" t="n">
-        <v>4625</v>
+        <v>4410</v>
       </c>
       <c r="E42" t="n">
-        <v>4715</v>
+        <v>4535</v>
       </c>
       <c r="F42" t="n">
-        <v>1404300</v>
+        <v>1335000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4650</v>
+        <v>4505</v>
       </c>
       <c r="C43" t="n">
-        <v>4745</v>
+        <v>4570</v>
       </c>
       <c r="D43" t="n">
-        <v>4490</v>
+        <v>4410</v>
       </c>
       <c r="E43" t="n">
-        <v>4620</v>
+        <v>4535</v>
       </c>
       <c r="F43" t="n">
-        <v>2267000</v>
+        <v>1335000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4715</v>
+        <v>4470</v>
       </c>
       <c r="C44" t="n">
-        <v>4900</v>
+        <v>4550</v>
       </c>
       <c r="D44" t="n">
-        <v>4630</v>
+        <v>4405</v>
       </c>
       <c r="E44" t="n">
-        <v>4685</v>
+        <v>4420</v>
       </c>
       <c r="F44" t="n">
-        <v>3388900</v>
+        <v>573400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5110</v>
+        <v>4470</v>
       </c>
       <c r="C45" t="n">
-        <v>5250</v>
+        <v>4550</v>
       </c>
       <c r="D45" t="n">
-        <v>4770</v>
+        <v>4405</v>
       </c>
       <c r="E45" t="n">
-        <v>4770</v>
+        <v>4420</v>
       </c>
       <c r="F45" t="n">
-        <v>5368600</v>
+        <v>573400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5900</v>
+        <v>4445</v>
       </c>
       <c r="C46" t="n">
-        <v>5940</v>
+        <v>4540</v>
       </c>
       <c r="D46" t="n">
-        <v>5740</v>
+        <v>4380</v>
       </c>
       <c r="E46" t="n">
-        <v>5770</v>
+        <v>4525</v>
       </c>
       <c r="F46" t="n">
-        <v>944600</v>
+        <v>612100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5830</v>
+        <v>4445</v>
       </c>
       <c r="C47" t="n">
-        <v>5980</v>
+        <v>4540</v>
       </c>
       <c r="D47" t="n">
-        <v>5760</v>
+        <v>4380</v>
       </c>
       <c r="E47" t="n">
-        <v>5850</v>
+        <v>4525</v>
       </c>
       <c r="F47" t="n">
-        <v>683500</v>
+        <v>612100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5670</v>
+        <v>4430</v>
       </c>
       <c r="C48" t="n">
-        <v>5890</v>
+        <v>4535</v>
       </c>
       <c r="D48" t="n">
-        <v>5610</v>
+        <v>4425</v>
       </c>
       <c r="E48" t="n">
-        <v>5850</v>
+        <v>4445</v>
       </c>
       <c r="F48" t="n">
-        <v>446100</v>
+        <v>1047600</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5790</v>
+        <v>4430</v>
       </c>
       <c r="C49" t="n">
-        <v>5840</v>
+        <v>4535</v>
       </c>
       <c r="D49" t="n">
-        <v>5580</v>
+        <v>4425</v>
       </c>
       <c r="E49" t="n">
-        <v>5710</v>
+        <v>4445</v>
       </c>
       <c r="F49" t="n">
-        <v>620900</v>
+        <v>1047600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5820</v>
+        <v>4400</v>
       </c>
       <c r="C50" t="n">
-        <v>5930</v>
+        <v>4450</v>
       </c>
       <c r="D50" t="n">
-        <v>5690</v>
+        <v>4310</v>
       </c>
       <c r="E50" t="n">
-        <v>5790</v>
+        <v>4430</v>
       </c>
       <c r="F50" t="n">
-        <v>486200</v>
+        <v>674600</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5830</v>
+        <v>4400</v>
       </c>
       <c r="C51" t="n">
-        <v>5980</v>
+        <v>4450</v>
       </c>
       <c r="D51" t="n">
-        <v>5720</v>
+        <v>4310</v>
       </c>
       <c r="E51" t="n">
-        <v>5840</v>
+        <v>4430</v>
       </c>
       <c r="F51" t="n">
-        <v>751500</v>
+        <v>674600</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6170</v>
+        <v>4400</v>
       </c>
       <c r="C52" t="n">
-        <v>6200</v>
+        <v>4500</v>
       </c>
       <c r="D52" t="n">
-        <v>5940</v>
+        <v>4390</v>
       </c>
       <c r="E52" t="n">
-        <v>5990</v>
+        <v>4460</v>
       </c>
       <c r="F52" t="n">
-        <v>595900</v>
+        <v>602500</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6490</v>
+        <v>4400</v>
       </c>
       <c r="C53" t="n">
-        <v>6510</v>
+        <v>4500</v>
       </c>
       <c r="D53" t="n">
-        <v>6220</v>
+        <v>4390</v>
       </c>
       <c r="E53" t="n">
-        <v>6220</v>
+        <v>4460</v>
       </c>
       <c r="F53" t="n">
-        <v>354200</v>
+        <v>602500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6560</v>
+        <v>4465</v>
       </c>
       <c r="C54" t="n">
-        <v>6570</v>
+        <v>4510</v>
       </c>
       <c r="D54" t="n">
-        <v>6420</v>
+        <v>4385</v>
       </c>
       <c r="E54" t="n">
-        <v>6440</v>
+        <v>4385</v>
       </c>
       <c r="F54" t="n">
-        <v>241500</v>
+        <v>843400</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6470</v>
+        <v>4465</v>
       </c>
       <c r="C55" t="n">
-        <v>6520</v>
+        <v>4510</v>
       </c>
       <c r="D55" t="n">
-        <v>6390</v>
+        <v>4385</v>
       </c>
       <c r="E55" t="n">
-        <v>6390</v>
+        <v>4385</v>
       </c>
       <c r="F55" t="n">
-        <v>276400</v>
+        <v>843400</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6160</v>
+        <v>4725</v>
       </c>
       <c r="C56" t="n">
-        <v>6390</v>
+        <v>4730</v>
       </c>
       <c r="D56" t="n">
-        <v>6140</v>
+        <v>4470</v>
       </c>
       <c r="E56" t="n">
-        <v>6390</v>
+        <v>4495</v>
       </c>
       <c r="F56" t="n">
-        <v>395600</v>
+        <v>1645900</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6440</v>
+        <v>4725</v>
       </c>
       <c r="C57" t="n">
-        <v>6440</v>
+        <v>4730</v>
       </c>
       <c r="D57" t="n">
-        <v>6110</v>
+        <v>4470</v>
       </c>
       <c r="E57" t="n">
-        <v>6160</v>
+        <v>4495</v>
       </c>
       <c r="F57" t="n">
-        <v>523800</v>
+        <v>1645900</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6020</v>
+        <v>4710</v>
       </c>
       <c r="C58" t="n">
-        <v>6470</v>
+        <v>4760</v>
       </c>
       <c r="D58" t="n">
-        <v>6020</v>
+        <v>4660</v>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>4730</v>
       </c>
       <c r="F58" t="n">
-        <v>518300</v>
+        <v>775700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6050</v>
+        <v>4710</v>
       </c>
       <c r="C59" t="n">
-        <v>6240</v>
+        <v>4760</v>
       </c>
       <c r="D59" t="n">
-        <v>5890</v>
+        <v>4660</v>
       </c>
       <c r="E59" t="n">
-        <v>6190</v>
+        <v>4730</v>
       </c>
       <c r="F59" t="n">
-        <v>613600</v>
+        <v>775700</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6110</v>
+        <v>4700</v>
       </c>
       <c r="C60" t="n">
-        <v>6110</v>
+        <v>4900</v>
       </c>
       <c r="D60" t="n">
-        <v>5760</v>
+        <v>4700</v>
       </c>
       <c r="E60" t="n">
-        <v>5990</v>
+        <v>4795</v>
       </c>
       <c r="F60" t="n">
-        <v>870600</v>
+        <v>875600</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6360</v>
+        <v>4700</v>
       </c>
       <c r="C61" t="n">
-        <v>6490</v>
+        <v>4900</v>
       </c>
       <c r="D61" t="n">
-        <v>6310</v>
+        <v>4700</v>
       </c>
       <c r="E61" t="n">
-        <v>6310</v>
+        <v>4795</v>
       </c>
       <c r="F61" t="n">
-        <v>422300</v>
+        <v>875600</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6500</v>
+        <v>4720</v>
       </c>
       <c r="C62" t="n">
-        <v>6510</v>
+        <v>4765</v>
       </c>
       <c r="D62" t="n">
-        <v>6320</v>
+        <v>4635</v>
       </c>
       <c r="E62" t="n">
-        <v>6440</v>
+        <v>4660</v>
       </c>
       <c r="F62" t="n">
-        <v>359700</v>
+        <v>822500</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6410</v>
+        <v>4720</v>
       </c>
       <c r="C63" t="n">
-        <v>6570</v>
+        <v>4765</v>
       </c>
       <c r="D63" t="n">
-        <v>6340</v>
+        <v>4635</v>
       </c>
       <c r="E63" t="n">
-        <v>6520</v>
+        <v>4660</v>
       </c>
       <c r="F63" t="n">
-        <v>589200</v>
+        <v>822500</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6660</v>
+        <v>4635</v>
       </c>
       <c r="C64" t="n">
-        <v>6740</v>
+        <v>4775</v>
       </c>
       <c r="D64" t="n">
-        <v>6570</v>
+        <v>4630</v>
       </c>
       <c r="E64" t="n">
-        <v>6710</v>
+        <v>4725</v>
       </c>
       <c r="F64" t="n">
-        <v>420600</v>
+        <v>736300</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6490</v>
+        <v>4635</v>
       </c>
       <c r="C65" t="n">
-        <v>6790</v>
+        <v>4775</v>
       </c>
       <c r="D65" t="n">
-        <v>6480</v>
+        <v>4630</v>
       </c>
       <c r="E65" t="n">
-        <v>6680</v>
+        <v>4725</v>
       </c>
       <c r="F65" t="n">
-        <v>762200</v>
+        <v>736300</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6490</v>
+        <v>4825</v>
       </c>
       <c r="C66" t="n">
-        <v>6690</v>
+        <v>4850</v>
       </c>
       <c r="D66" t="n">
-        <v>6410</v>
+        <v>4635</v>
       </c>
       <c r="E66" t="n">
-        <v>6490</v>
+        <v>4645</v>
       </c>
       <c r="F66" t="n">
-        <v>849900</v>
+        <v>1022200</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6280</v>
+        <v>4825</v>
       </c>
       <c r="C67" t="n">
-        <v>6470</v>
+        <v>4850</v>
       </c>
       <c r="D67" t="n">
-        <v>6210</v>
+        <v>4635</v>
       </c>
       <c r="E67" t="n">
-        <v>6450</v>
+        <v>4645</v>
       </c>
       <c r="F67" t="n">
-        <v>573400</v>
+        <v>1022200</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6000</v>
+        <v>4980</v>
       </c>
       <c r="C68" t="n">
-        <v>6230</v>
+        <v>4980</v>
       </c>
       <c r="D68" t="n">
-        <v>5990</v>
+        <v>4825</v>
       </c>
       <c r="E68" t="n">
-        <v>6200</v>
+        <v>4850</v>
       </c>
       <c r="F68" t="n">
-        <v>402200</v>
+        <v>489500</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6120</v>
+        <v>4980</v>
       </c>
       <c r="C69" t="n">
-        <v>6180</v>
+        <v>4980</v>
       </c>
       <c r="D69" t="n">
-        <v>6010</v>
+        <v>4825</v>
       </c>
       <c r="E69" t="n">
-        <v>6170</v>
+        <v>4850</v>
       </c>
       <c r="F69" t="n">
-        <v>321500</v>
+        <v>489500</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6250</v>
+        <v>5020</v>
       </c>
       <c r="C70" t="n">
-        <v>6300</v>
+        <v>5020</v>
       </c>
       <c r="D70" t="n">
-        <v>5880</v>
+        <v>4920</v>
       </c>
       <c r="E70" t="n">
-        <v>6110</v>
+        <v>4960</v>
       </c>
       <c r="F70" t="n">
-        <v>474000</v>
+        <v>339600</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6000</v>
+        <v>5020</v>
       </c>
       <c r="C71" t="n">
-        <v>6110</v>
+        <v>5020</v>
       </c>
       <c r="D71" t="n">
-        <v>5890</v>
+        <v>4920</v>
       </c>
       <c r="E71" t="n">
-        <v>6050</v>
+        <v>4960</v>
       </c>
       <c r="F71" t="n">
-        <v>341100</v>
+        <v>339600</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5880</v>
+        <v>5080</v>
       </c>
       <c r="C72" t="n">
-        <v>6100</v>
+        <v>5100</v>
       </c>
       <c r="D72" t="n">
-        <v>5880</v>
+        <v>4985</v>
       </c>
       <c r="E72" t="n">
-        <v>6040</v>
+        <v>5000</v>
       </c>
       <c r="F72" t="n">
-        <v>392300</v>
+        <v>360300</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5930</v>
+        <v>5080</v>
       </c>
       <c r="C73" t="n">
-        <v>5990</v>
+        <v>5100</v>
       </c>
       <c r="D73" t="n">
-        <v>5860</v>
+        <v>4985</v>
       </c>
       <c r="E73" t="n">
-        <v>5890</v>
+        <v>5000</v>
       </c>
       <c r="F73" t="n">
-        <v>408600</v>
+        <v>360300</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6075</v>
+        <v>4960</v>
       </c>
       <c r="C74" t="n">
-        <v>6104</v>
+        <v>5060</v>
       </c>
       <c r="D74" t="n">
-        <v>5925</v>
+        <v>4885</v>
       </c>
       <c r="E74" t="n">
-        <v>5995</v>
+        <v>5060</v>
       </c>
       <c r="F74" t="n">
-        <v>438500</v>
+        <v>430800</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6194</v>
+        <v>4960</v>
       </c>
       <c r="C75" t="n">
-        <v>6214</v>
+        <v>5060</v>
       </c>
       <c r="D75" t="n">
-        <v>6035</v>
+        <v>4885</v>
       </c>
       <c r="E75" t="n">
-        <v>6065</v>
+        <v>5060</v>
       </c>
       <c r="F75" t="n">
-        <v>469600</v>
+        <v>430800</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6224</v>
+        <v>5030</v>
       </c>
       <c r="C76" t="n">
-        <v>6253</v>
+        <v>5100</v>
       </c>
       <c r="D76" t="n">
-        <v>6144</v>
+        <v>4930</v>
       </c>
       <c r="E76" t="n">
-        <v>6244</v>
+        <v>4960</v>
       </c>
       <c r="F76" t="n">
-        <v>417500</v>
+        <v>807900</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6293</v>
+        <v>5030</v>
       </c>
       <c r="C77" t="n">
-        <v>6313</v>
+        <v>5100</v>
       </c>
       <c r="D77" t="n">
-        <v>6154</v>
+        <v>4930</v>
       </c>
       <c r="E77" t="n">
-        <v>6234</v>
+        <v>4960</v>
       </c>
       <c r="F77" t="n">
-        <v>600200</v>
+        <v>807900</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6244</v>
+        <v>4890</v>
       </c>
       <c r="C78" t="n">
-        <v>6283</v>
+        <v>5040</v>
       </c>
       <c r="D78" t="n">
-        <v>6184</v>
+        <v>4850</v>
       </c>
       <c r="E78" t="n">
-        <v>6194</v>
+        <v>5030</v>
       </c>
       <c r="F78" t="n">
-        <v>316300</v>
+        <v>1364700</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6313</v>
+        <v>4890</v>
       </c>
       <c r="C79" t="n">
-        <v>6353</v>
+        <v>5040</v>
       </c>
       <c r="D79" t="n">
-        <v>6214</v>
+        <v>4850</v>
       </c>
       <c r="E79" t="n">
-        <v>6244</v>
+        <v>5030</v>
       </c>
       <c r="F79" t="n">
-        <v>507100</v>
+        <v>1364700</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6442</v>
+        <v>4695</v>
       </c>
       <c r="C80" t="n">
-        <v>6601</v>
+        <v>4780</v>
       </c>
       <c r="D80" t="n">
-        <v>6343</v>
+        <v>4660</v>
       </c>
       <c r="E80" t="n">
-        <v>6343</v>
+        <v>4775</v>
       </c>
       <c r="F80" t="n">
-        <v>1024100</v>
+        <v>821500</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5866</v>
+        <v>4695</v>
       </c>
       <c r="C81" t="n">
-        <v>6413</v>
+        <v>4780</v>
       </c>
       <c r="D81" t="n">
-        <v>5866</v>
+        <v>4660</v>
       </c>
       <c r="E81" t="n">
-        <v>6343</v>
+        <v>4775</v>
       </c>
       <c r="F81" t="n">
-        <v>1133800</v>
+        <v>821500</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5906</v>
+        <v>4765</v>
       </c>
       <c r="C82" t="n">
-        <v>5945</v>
+        <v>4845</v>
       </c>
       <c r="D82" t="n">
-        <v>5727</v>
+        <v>4655</v>
       </c>
       <c r="E82" t="n">
-        <v>5806</v>
+        <v>4680</v>
       </c>
       <c r="F82" t="n">
-        <v>376000</v>
+        <v>1090900</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6015</v>
+        <v>4765</v>
       </c>
       <c r="C83" t="n">
-        <v>6084</v>
+        <v>4845</v>
       </c>
       <c r="D83" t="n">
-        <v>5876</v>
+        <v>4655</v>
       </c>
       <c r="E83" t="n">
-        <v>5915</v>
+        <v>4680</v>
       </c>
       <c r="F83" t="n">
-        <v>354600</v>
+        <v>1090900</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5816</v>
+        <v>4690</v>
       </c>
       <c r="C84" t="n">
-        <v>5856</v>
+        <v>4820</v>
       </c>
       <c r="D84" t="n">
-        <v>5756</v>
+        <v>4665</v>
       </c>
       <c r="E84" t="n">
-        <v>5856</v>
+        <v>4720</v>
       </c>
       <c r="F84" t="n">
-        <v>267800</v>
+        <v>1002100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5846</v>
+        <v>4690</v>
       </c>
       <c r="C85" t="n">
-        <v>5876</v>
+        <v>4820</v>
       </c>
       <c r="D85" t="n">
-        <v>5707</v>
+        <v>4665</v>
       </c>
       <c r="E85" t="n">
-        <v>5727</v>
+        <v>4720</v>
       </c>
       <c r="F85" t="n">
-        <v>345200</v>
+        <v>1002100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>5965</v>
+        <v>4855</v>
       </c>
       <c r="C86" t="n">
-        <v>5975</v>
+        <v>4965</v>
       </c>
       <c r="D86" t="n">
-        <v>5776</v>
+        <v>4680</v>
       </c>
       <c r="E86" t="n">
-        <v>5886</v>
+        <v>4760</v>
       </c>
       <c r="F86" t="n">
-        <v>460500</v>
+        <v>1837800</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5816</v>
+        <v>4855</v>
       </c>
       <c r="C87" t="n">
-        <v>6094</v>
+        <v>4965</v>
       </c>
       <c r="D87" t="n">
-        <v>5806</v>
+        <v>4680</v>
       </c>
       <c r="E87" t="n">
-        <v>5985</v>
+        <v>4760</v>
       </c>
       <c r="F87" t="n">
-        <v>856200</v>
+        <v>1837800</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5607</v>
+        <v>4625</v>
       </c>
       <c r="C88" t="n">
-        <v>5746</v>
+        <v>4775</v>
       </c>
       <c r="D88" t="n">
-        <v>5597</v>
+        <v>4625</v>
       </c>
       <c r="E88" t="n">
-        <v>5737</v>
+        <v>4715</v>
       </c>
       <c r="F88" t="n">
-        <v>341500</v>
+        <v>1404300</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5627</v>
+        <v>4625</v>
       </c>
       <c r="C89" t="n">
-        <v>5697</v>
+        <v>4775</v>
       </c>
       <c r="D89" t="n">
-        <v>5587</v>
+        <v>4625</v>
       </c>
       <c r="E89" t="n">
-        <v>5587</v>
+        <v>4715</v>
       </c>
       <c r="F89" t="n">
-        <v>340900</v>
+        <v>1404300</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5667</v>
+        <v>4650</v>
       </c>
       <c r="C90" t="n">
-        <v>5737</v>
+        <v>4745</v>
       </c>
       <c r="D90" t="n">
-        <v>5498</v>
+        <v>4490</v>
       </c>
       <c r="E90" t="n">
-        <v>5707</v>
+        <v>4620</v>
       </c>
       <c r="F90" t="n">
-        <v>508900</v>
+        <v>2267000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5627</v>
+        <v>4650</v>
       </c>
       <c r="C91" t="n">
-        <v>5687</v>
+        <v>4745</v>
       </c>
       <c r="D91" t="n">
-        <v>5538</v>
+        <v>4490</v>
       </c>
       <c r="E91" t="n">
-        <v>5597</v>
+        <v>4620</v>
       </c>
       <c r="F91" t="n">
-        <v>373100</v>
+        <v>2267000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5756</v>
+        <v>4715</v>
       </c>
       <c r="C92" t="n">
-        <v>5846</v>
+        <v>4900</v>
       </c>
       <c r="D92" t="n">
-        <v>5508</v>
+        <v>4630</v>
       </c>
       <c r="E92" t="n">
-        <v>5558</v>
+        <v>4685</v>
       </c>
       <c r="F92" t="n">
-        <v>792000</v>
+        <v>3388900</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5657</v>
+        <v>4715</v>
       </c>
       <c r="C93" t="n">
-        <v>5746</v>
+        <v>4900</v>
       </c>
       <c r="D93" t="n">
-        <v>5577</v>
+        <v>4630</v>
       </c>
       <c r="E93" t="n">
-        <v>5727</v>
+        <v>4685</v>
       </c>
       <c r="F93" t="n">
-        <v>785400</v>
+        <v>3388900</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5488</v>
+        <v>5110</v>
       </c>
       <c r="C94" t="n">
-        <v>5657</v>
+        <v>5250</v>
       </c>
       <c r="D94" t="n">
-        <v>5408</v>
+        <v>4770</v>
       </c>
       <c r="E94" t="n">
-        <v>5597</v>
+        <v>4770</v>
       </c>
       <c r="F94" t="n">
-        <v>618100</v>
+        <v>5368600</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5418</v>
+        <v>5110</v>
       </c>
       <c r="C95" t="n">
-        <v>5567</v>
+        <v>5250</v>
       </c>
       <c r="D95" t="n">
-        <v>5339</v>
+        <v>4770</v>
       </c>
       <c r="E95" t="n">
-        <v>5488</v>
+        <v>4770</v>
       </c>
       <c r="F95" t="n">
-        <v>640300</v>
+        <v>5368600</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5438</v>
+        <v>5900</v>
       </c>
       <c r="C96" t="n">
-        <v>5458</v>
+        <v>5940</v>
       </c>
       <c r="D96" t="n">
-        <v>5309</v>
+        <v>5740</v>
       </c>
       <c r="E96" t="n">
-        <v>5369</v>
+        <v>5770</v>
       </c>
       <c r="F96" t="n">
-        <v>614000</v>
+        <v>944600</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>5379</v>
+        <v>5900</v>
       </c>
       <c r="C97" t="n">
-        <v>5408</v>
+        <v>5940</v>
       </c>
       <c r="D97" t="n">
-        <v>5289</v>
+        <v>5740</v>
       </c>
       <c r="E97" t="n">
-        <v>5369</v>
+        <v>5770</v>
       </c>
       <c r="F97" t="n">
-        <v>556900</v>
+        <v>944600</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5418</v>
+        <v>5830</v>
       </c>
       <c r="C98" t="n">
-        <v>5458</v>
+        <v>5980</v>
       </c>
       <c r="D98" t="n">
-        <v>5229</v>
+        <v>5760</v>
       </c>
       <c r="E98" t="n">
-        <v>5418</v>
+        <v>5850</v>
       </c>
       <c r="F98" t="n">
-        <v>718900</v>
+        <v>683500</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5558</v>
+        <v>5830</v>
       </c>
       <c r="C99" t="n">
-        <v>5597</v>
+        <v>5980</v>
       </c>
       <c r="D99" t="n">
-        <v>5468</v>
+        <v>5760</v>
       </c>
       <c r="E99" t="n">
-        <v>5508</v>
+        <v>5850</v>
       </c>
       <c r="F99" t="n">
-        <v>461500</v>
+        <v>683500</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5627</v>
+        <v>5670</v>
       </c>
       <c r="C100" t="n">
-        <v>5677</v>
+        <v>5890</v>
       </c>
       <c r="D100" t="n">
-        <v>5498</v>
+        <v>5610</v>
       </c>
       <c r="E100" t="n">
-        <v>5528</v>
+        <v>5850</v>
       </c>
       <c r="F100" t="n">
-        <v>763100</v>
+        <v>446100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5558</v>
+        <v>5670</v>
       </c>
       <c r="C101" t="n">
-        <v>5816</v>
+        <v>5890</v>
       </c>
       <c r="D101" t="n">
-        <v>5498</v>
+        <v>5610</v>
       </c>
       <c r="E101" t="n">
-        <v>5647</v>
+        <v>5850</v>
       </c>
       <c r="F101" t="n">
-        <v>959600</v>
+        <v>446100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5647</v>
+        <v>5790</v>
       </c>
       <c r="C102" t="n">
-        <v>5796</v>
+        <v>5840</v>
       </c>
       <c r="D102" t="n">
-        <v>5567</v>
+        <v>5580</v>
       </c>
       <c r="E102" t="n">
-        <v>5597</v>
+        <v>5710</v>
       </c>
       <c r="F102" t="n">
-        <v>1126900</v>
+        <v>620900</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5876</v>
+        <v>5790</v>
       </c>
       <c r="C103" t="n">
-        <v>5945</v>
+        <v>5840</v>
       </c>
       <c r="D103" t="n">
-        <v>5528</v>
+        <v>5580</v>
       </c>
       <c r="E103" t="n">
-        <v>5548</v>
+        <v>5710</v>
       </c>
       <c r="F103" t="n">
-        <v>2447600</v>
+        <v>620900</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5766</v>
+        <v>5820</v>
       </c>
       <c r="C104" t="n">
-        <v>6244</v>
+        <v>5930</v>
       </c>
       <c r="D104" t="n">
-        <v>5717</v>
+        <v>5690</v>
       </c>
       <c r="E104" t="n">
-        <v>6224</v>
+        <v>5790</v>
       </c>
       <c r="F104" t="n">
-        <v>5572900</v>
+        <v>486200</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5617</v>
+        <v>5820</v>
       </c>
       <c r="C105" t="n">
-        <v>5617</v>
+        <v>5930</v>
       </c>
       <c r="D105" t="n">
-        <v>5548</v>
+        <v>5690</v>
       </c>
       <c r="E105" t="n">
-        <v>5617</v>
+        <v>5790</v>
       </c>
       <c r="F105" t="n">
-        <v>1174500</v>
+        <v>486200</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4882</v>
+        <v>5830</v>
       </c>
       <c r="C106" t="n">
-        <v>4971</v>
+        <v>5980</v>
       </c>
       <c r="D106" t="n">
-        <v>4847</v>
+        <v>5720</v>
       </c>
       <c r="E106" t="n">
-        <v>4921</v>
+        <v>5840</v>
       </c>
       <c r="F106" t="n">
-        <v>1401700</v>
+        <v>751500</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4772</v>
+        <v>5830</v>
       </c>
       <c r="C107" t="n">
-        <v>4941</v>
+        <v>5980</v>
       </c>
       <c r="D107" t="n">
-        <v>4747</v>
+        <v>5720</v>
       </c>
       <c r="E107" t="n">
-        <v>4896</v>
+        <v>5840</v>
       </c>
       <c r="F107" t="n">
-        <v>1048300</v>
+        <v>751500</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4712</v>
+        <v>6170</v>
       </c>
       <c r="C108" t="n">
-        <v>4862</v>
+        <v>6200</v>
       </c>
       <c r="D108" t="n">
-        <v>4688</v>
+        <v>5940</v>
       </c>
       <c r="E108" t="n">
-        <v>4722</v>
+        <v>5990</v>
       </c>
       <c r="F108" t="n">
-        <v>757400</v>
+        <v>595900</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4573</v>
+        <v>6170</v>
       </c>
       <c r="C109" t="n">
-        <v>4683</v>
+        <v>6200</v>
       </c>
       <c r="D109" t="n">
-        <v>4539</v>
+        <v>5940</v>
       </c>
       <c r="E109" t="n">
-        <v>4673</v>
+        <v>5990</v>
       </c>
       <c r="F109" t="n">
-        <v>558600</v>
+        <v>595900</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4548</v>
+        <v>6490</v>
       </c>
       <c r="C110" t="n">
-        <v>4628</v>
+        <v>6510</v>
       </c>
       <c r="D110" t="n">
-        <v>4519</v>
+        <v>6220</v>
       </c>
       <c r="E110" t="n">
-        <v>4603</v>
+        <v>6220</v>
       </c>
       <c r="F110" t="n">
-        <v>414100</v>
+        <v>354200</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4583</v>
+        <v>6490</v>
       </c>
       <c r="C111" t="n">
-        <v>4593</v>
+        <v>6510</v>
       </c>
       <c r="D111" t="n">
-        <v>4504</v>
+        <v>6220</v>
       </c>
       <c r="E111" t="n">
-        <v>4504</v>
+        <v>6220</v>
       </c>
       <c r="F111" t="n">
-        <v>644400</v>
+        <v>354200</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4792</v>
+        <v>6560</v>
       </c>
       <c r="C112" t="n">
-        <v>4817</v>
+        <v>6570</v>
       </c>
       <c r="D112" t="n">
-        <v>4583</v>
+        <v>6420</v>
       </c>
       <c r="E112" t="n">
-        <v>4603</v>
+        <v>6440</v>
       </c>
       <c r="F112" t="n">
-        <v>936100</v>
+        <v>241500</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4742</v>
+        <v>6560</v>
       </c>
       <c r="C113" t="n">
-        <v>4827</v>
+        <v>6570</v>
       </c>
       <c r="D113" t="n">
-        <v>4708</v>
+        <v>6420</v>
       </c>
       <c r="E113" t="n">
-        <v>4742</v>
+        <v>6440</v>
       </c>
       <c r="F113" t="n">
-        <v>306300</v>
+        <v>241500</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-11-27</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4762</v>
+        <v>6470</v>
       </c>
       <c r="C114" t="n">
-        <v>4782</v>
+        <v>6520</v>
       </c>
       <c r="D114" t="n">
-        <v>4717</v>
+        <v>6390</v>
       </c>
       <c r="E114" t="n">
-        <v>4742</v>
+        <v>6390</v>
       </c>
       <c r="F114" t="n">
-        <v>283400</v>
+        <v>276400</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-11-27</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4807</v>
+        <v>6470</v>
       </c>
       <c r="C115" t="n">
-        <v>4812</v>
+        <v>6520</v>
       </c>
       <c r="D115" t="n">
-        <v>4703</v>
+        <v>6390</v>
       </c>
       <c r="E115" t="n">
-        <v>4762</v>
+        <v>6390</v>
       </c>
       <c r="F115" t="n">
-        <v>576300</v>
+        <v>276400</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4842</v>
+        <v>6160</v>
       </c>
       <c r="C116" t="n">
-        <v>4862</v>
+        <v>6390</v>
       </c>
       <c r="D116" t="n">
-        <v>4747</v>
+        <v>6140</v>
       </c>
       <c r="E116" t="n">
-        <v>4807</v>
+        <v>6390</v>
       </c>
       <c r="F116" t="n">
-        <v>327800</v>
+        <v>395600</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4891</v>
+        <v>6160</v>
       </c>
       <c r="C117" t="n">
-        <v>4896</v>
+        <v>6390</v>
       </c>
       <c r="D117" t="n">
-        <v>4832</v>
+        <v>6140</v>
       </c>
       <c r="E117" t="n">
-        <v>4842</v>
+        <v>6390</v>
       </c>
       <c r="F117" t="n">
-        <v>328100</v>
+        <v>395600</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4822</v>
+        <v>6440</v>
       </c>
       <c r="C118" t="n">
-        <v>4916</v>
+        <v>6440</v>
       </c>
       <c r="D118" t="n">
-        <v>4792</v>
+        <v>6110</v>
       </c>
       <c r="E118" t="n">
-        <v>4896</v>
+        <v>6160</v>
       </c>
       <c r="F118" t="n">
-        <v>454500</v>
+        <v>523800</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4772</v>
+        <v>6440</v>
       </c>
       <c r="C119" t="n">
-        <v>4807</v>
+        <v>6440</v>
       </c>
       <c r="D119" t="n">
-        <v>4737</v>
+        <v>6110</v>
       </c>
       <c r="E119" t="n">
-        <v>4777</v>
+        <v>6160</v>
       </c>
       <c r="F119" t="n">
-        <v>314900</v>
+        <v>523800</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4737</v>
+        <v>6020</v>
       </c>
       <c r="C120" t="n">
-        <v>4782</v>
+        <v>6470</v>
       </c>
       <c r="D120" t="n">
-        <v>4673</v>
+        <v>6020</v>
       </c>
       <c r="E120" t="n">
-        <v>4782</v>
+        <v>6440</v>
       </c>
       <c r="F120" t="n">
-        <v>308200</v>
+        <v>518300</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4872</v>
+        <v>6020</v>
       </c>
       <c r="C121" t="n">
-        <v>4872</v>
+        <v>6470</v>
       </c>
       <c r="D121" t="n">
-        <v>4752</v>
+        <v>6020</v>
       </c>
       <c r="E121" t="n">
-        <v>4767</v>
+        <v>6440</v>
       </c>
       <c r="F121" t="n">
-        <v>494500</v>
+        <v>518300</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5060</v>
+        <v>6050</v>
       </c>
       <c r="C122" t="n">
-        <v>5070</v>
+        <v>6240</v>
       </c>
       <c r="D122" t="n">
-        <v>4867</v>
+        <v>5890</v>
       </c>
       <c r="E122" t="n">
-        <v>4921</v>
+        <v>6190</v>
       </c>
       <c r="F122" t="n">
-        <v>428500</v>
+        <v>613600</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6240</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F123" t="n">
+        <v>613600</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5990</v>
+      </c>
+      <c r="F124" t="n">
+        <v>870600</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5990</v>
+      </c>
+      <c r="F125" t="n">
+        <v>870600</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>6360</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6490</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6310</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6310</v>
+      </c>
+      <c r="F126" t="n">
+        <v>422300</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>6360</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6490</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6310</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6310</v>
+      </c>
+      <c r="F127" t="n">
+        <v>422300</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6500</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6510</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6320</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F128" t="n">
+        <v>359700</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>6500</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6510</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6320</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F129" t="n">
+        <v>359700</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>6410</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6570</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6340</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6520</v>
+      </c>
+      <c r="F130" t="n">
+        <v>589200</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>6410</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6570</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6340</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6520</v>
+      </c>
+      <c r="F131" t="n">
+        <v>589200</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>6660</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6740</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6570</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6710</v>
+      </c>
+      <c r="F132" t="n">
+        <v>420600</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>6660</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6740</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6570</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6710</v>
+      </c>
+      <c r="F133" t="n">
+        <v>420600</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>6490</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6790</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6480</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6680</v>
+      </c>
+      <c r="F134" t="n">
+        <v>762200</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>6490</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6790</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6480</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6680</v>
+      </c>
+      <c r="F135" t="n">
+        <v>762200</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>6490</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6690</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6410</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6490</v>
+      </c>
+      <c r="F136" t="n">
+        <v>849900</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>6490</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6690</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6410</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6490</v>
+      </c>
+      <c r="F137" t="n">
+        <v>849900</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>6280</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6470</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6450</v>
+      </c>
+      <c r="F138" t="n">
+        <v>573400</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>6280</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6470</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6450</v>
+      </c>
+      <c r="F139" t="n">
+        <v>573400</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6230</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5990</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F140" t="n">
+        <v>402200</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6230</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5990</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F141" t="n">
+        <v>402200</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6180</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6010</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6170</v>
+      </c>
+      <c r="F142" t="n">
+        <v>321500</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6180</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6010</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6170</v>
+      </c>
+      <c r="F143" t="n">
+        <v>321500</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>6250</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6300</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6110</v>
+      </c>
+      <c r="F144" t="n">
+        <v>474000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>6250</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6300</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6110</v>
+      </c>
+      <c r="F145" t="n">
+        <v>474000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6050</v>
+      </c>
+      <c r="F146" t="n">
+        <v>341100</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6050</v>
+      </c>
+      <c r="F147" t="n">
+        <v>341100</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6040</v>
+      </c>
+      <c r="F148" t="n">
+        <v>392300</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6040</v>
+      </c>
+      <c r="F149" t="n">
+        <v>392300</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>5930</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5990</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5890</v>
+      </c>
+      <c r="F150" t="n">
+        <v>408600</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>5930</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5990</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5890</v>
+      </c>
+      <c r="F151" t="n">
+        <v>408600</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>6075</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6104</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5925</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5995</v>
+      </c>
+      <c r="F152" t="n">
+        <v>438500</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>6075</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6104</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5925</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5995</v>
+      </c>
+      <c r="F153" t="n">
+        <v>438500</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>6194</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6214</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6035</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6065</v>
+      </c>
+      <c r="F154" t="n">
+        <v>469600</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>6194</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6214</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6035</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6065</v>
+      </c>
+      <c r="F155" t="n">
+        <v>469600</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>6224</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6253</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6144</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6244</v>
+      </c>
+      <c r="F156" t="n">
+        <v>417500</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>6224</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6253</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6144</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6244</v>
+      </c>
+      <c r="F157" t="n">
+        <v>417500</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6293</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6313</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6154</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6234</v>
+      </c>
+      <c r="F158" t="n">
+        <v>600200</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>6293</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6313</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6154</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6234</v>
+      </c>
+      <c r="F159" t="n">
+        <v>600200</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>6244</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6184</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6194</v>
+      </c>
+      <c r="F160" t="n">
+        <v>316300</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>6244</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6283</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6184</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6194</v>
+      </c>
+      <c r="F161" t="n">
+        <v>316300</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>6313</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6353</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6214</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6244</v>
+      </c>
+      <c r="F162" t="n">
+        <v>507100</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>6313</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6353</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6214</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6244</v>
+      </c>
+      <c r="F163" t="n">
+        <v>507100</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>6442</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6601</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6343</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6343</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1024100</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>6442</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6601</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6343</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6343</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1024100</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>5866</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6413</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5866</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6343</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1133800</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>5866</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6413</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5866</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6343</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1133800</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>5906</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5945</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5727</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5806</v>
+      </c>
+      <c r="F168" t="n">
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>5906</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5945</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5727</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5806</v>
+      </c>
+      <c r="F169" t="n">
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>6015</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6084</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5876</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5915</v>
+      </c>
+      <c r="F170" t="n">
+        <v>354600</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>6015</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6084</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5876</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5915</v>
+      </c>
+      <c r="F171" t="n">
+        <v>354600</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>5816</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5856</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5756</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5856</v>
+      </c>
+      <c r="F172" t="n">
+        <v>267800</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>5816</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5856</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5756</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5856</v>
+      </c>
+      <c r="F173" t="n">
+        <v>267800</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>5846</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5876</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5707</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5727</v>
+      </c>
+      <c r="F174" t="n">
+        <v>345200</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>5846</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5876</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5707</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5727</v>
+      </c>
+      <c r="F175" t="n">
+        <v>345200</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>5965</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5975</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5776</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5886</v>
+      </c>
+      <c r="F176" t="n">
+        <v>460500</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>5965</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5975</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5776</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5886</v>
+      </c>
+      <c r="F177" t="n">
+        <v>460500</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>5816</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6094</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5806</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5985</v>
+      </c>
+      <c r="F178" t="n">
+        <v>856200</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>5816</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6094</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5806</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5985</v>
+      </c>
+      <c r="F179" t="n">
+        <v>856200</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>5607</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5746</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5597</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5737</v>
+      </c>
+      <c r="F180" t="n">
+        <v>341500</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>5607</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5746</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5597</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5737</v>
+      </c>
+      <c r="F181" t="n">
+        <v>341500</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>5627</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5697</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5587</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5587</v>
+      </c>
+      <c r="F182" t="n">
+        <v>340900</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>5627</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5697</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5587</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5587</v>
+      </c>
+      <c r="F183" t="n">
+        <v>340900</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>5667</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5737</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5498</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5707</v>
+      </c>
+      <c r="F184" t="n">
+        <v>508900</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>5667</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5737</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5498</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5707</v>
+      </c>
+      <c r="F185" t="n">
+        <v>508900</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>5627</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5687</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5538</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5597</v>
+      </c>
+      <c r="F186" t="n">
+        <v>373100</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>5627</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5687</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5538</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5597</v>
+      </c>
+      <c r="F187" t="n">
+        <v>373100</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>5756</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5846</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5508</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5558</v>
+      </c>
+      <c r="F188" t="n">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>5756</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5846</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5508</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5558</v>
+      </c>
+      <c r="F189" t="n">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>5657</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5746</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5577</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5727</v>
+      </c>
+      <c r="F190" t="n">
+        <v>785400</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>5657</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5746</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5577</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5727</v>
+      </c>
+      <c r="F191" t="n">
+        <v>785400</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>5488</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5657</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5408</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5597</v>
+      </c>
+      <c r="F192" t="n">
+        <v>618100</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>5488</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5657</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5408</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5597</v>
+      </c>
+      <c r="F193" t="n">
+        <v>618100</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>5418</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5567</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5339</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5488</v>
+      </c>
+      <c r="F194" t="n">
+        <v>640300</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>5418</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5567</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5339</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5488</v>
+      </c>
+      <c r="F195" t="n">
+        <v>640300</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>5438</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5458</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5309</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5369</v>
+      </c>
+      <c r="F196" t="n">
+        <v>614000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>5438</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5458</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5309</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5369</v>
+      </c>
+      <c r="F197" t="n">
+        <v>614000</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>5379</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5408</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5289</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5369</v>
+      </c>
+      <c r="F198" t="n">
+        <v>556900</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>5379</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5408</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5289</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5369</v>
+      </c>
+      <c r="F199" t="n">
+        <v>556900</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>5418</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5458</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5229</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5418</v>
+      </c>
+      <c r="F200" t="n">
+        <v>718900</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>5418</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5458</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5229</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5418</v>
+      </c>
+      <c r="F201" t="n">
+        <v>718900</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>5558</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5597</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5468</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5508</v>
+      </c>
+      <c r="F202" t="n">
+        <v>461500</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>5558</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5597</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5468</v>
+      </c>
+      <c r="E203" t="n">
+        <v>5508</v>
+      </c>
+      <c r="F203" t="n">
+        <v>461500</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>5627</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5677</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5498</v>
+      </c>
+      <c r="E204" t="n">
+        <v>5528</v>
+      </c>
+      <c r="F204" t="n">
+        <v>763100</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>5627</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5677</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5498</v>
+      </c>
+      <c r="E205" t="n">
+        <v>5528</v>
+      </c>
+      <c r="F205" t="n">
+        <v>763100</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>5558</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5816</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5498</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5647</v>
+      </c>
+      <c r="F206" t="n">
+        <v>959600</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>5558</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5816</v>
+      </c>
+      <c r="D207" t="n">
+        <v>5498</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5647</v>
+      </c>
+      <c r="F207" t="n">
+        <v>959600</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>5647</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5796</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5567</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5597</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1126900</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>5647</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5796</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5567</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5597</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1126900</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>5876</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5945</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5528</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5548</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2447600</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>5876</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5945</v>
+      </c>
+      <c r="D211" t="n">
+        <v>5528</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5548</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2447600</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>5766</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6244</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5717</v>
+      </c>
+      <c r="E212" t="n">
+        <v>6224</v>
+      </c>
+      <c r="F212" t="n">
+        <v>5572900</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>5766</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6244</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5717</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6224</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5572900</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>5617</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5617</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5548</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5617</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1174500</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>5617</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5617</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5548</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5617</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1174500</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>4882</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4971</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4847</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4921</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1401700</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>4882</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4971</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4847</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4921</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1401700</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>4772</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4941</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4747</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4896</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1048300</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>4772</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4941</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4747</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4896</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1048300</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>4712</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4862</v>
+      </c>
+      <c r="D220" t="n">
+        <v>4688</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4722</v>
+      </c>
+      <c r="F220" t="n">
+        <v>757400</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>4712</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4862</v>
+      </c>
+      <c r="D221" t="n">
+        <v>4688</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4722</v>
+      </c>
+      <c r="F221" t="n">
+        <v>757400</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>4573</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4683</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4539</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4673</v>
+      </c>
+      <c r="F222" t="n">
+        <v>558600</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>4573</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4683</v>
+      </c>
+      <c r="D223" t="n">
+        <v>4539</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4673</v>
+      </c>
+      <c r="F223" t="n">
+        <v>558600</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>4548</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4628</v>
+      </c>
+      <c r="D224" t="n">
+        <v>4519</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4603</v>
+      </c>
+      <c r="F224" t="n">
+        <v>414100</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>4548</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4628</v>
+      </c>
+      <c r="D225" t="n">
+        <v>4519</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4603</v>
+      </c>
+      <c r="F225" t="n">
+        <v>414100</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>4583</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4593</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4504</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4504</v>
+      </c>
+      <c r="F226" t="n">
+        <v>644400</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>4583</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4593</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4504</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4504</v>
+      </c>
+      <c r="F227" t="n">
+        <v>644400</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>4792</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4817</v>
+      </c>
+      <c r="D228" t="n">
+        <v>4583</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4603</v>
+      </c>
+      <c r="F228" t="n">
+        <v>936100</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>4792</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4817</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4583</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4603</v>
+      </c>
+      <c r="F229" t="n">
+        <v>936100</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>4742</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4827</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4708</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4742</v>
+      </c>
+      <c r="F230" t="n">
+        <v>306300</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>4742</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4827</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4708</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4742</v>
+      </c>
+      <c r="F231" t="n">
+        <v>306300</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>4762</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4782</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4717</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4742</v>
+      </c>
+      <c r="F232" t="n">
+        <v>283400</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>4762</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4782</v>
+      </c>
+      <c r="D233" t="n">
+        <v>4717</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4742</v>
+      </c>
+      <c r="F233" t="n">
+        <v>283400</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>4807</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4812</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4703</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4762</v>
+      </c>
+      <c r="F234" t="n">
+        <v>576300</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>4807</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4812</v>
+      </c>
+      <c r="D235" t="n">
+        <v>4703</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4762</v>
+      </c>
+      <c r="F235" t="n">
+        <v>576300</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>4842</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4862</v>
+      </c>
+      <c r="D236" t="n">
+        <v>4747</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4807</v>
+      </c>
+      <c r="F236" t="n">
+        <v>327800</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>4842</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4862</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4747</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4807</v>
+      </c>
+      <c r="F237" t="n">
+        <v>327800</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>4891</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4896</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4832</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4842</v>
+      </c>
+      <c r="F238" t="n">
+        <v>328100</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>4891</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4896</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4832</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4842</v>
+      </c>
+      <c r="F239" t="n">
+        <v>328100</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>4822</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4916</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4792</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4896</v>
+      </c>
+      <c r="F240" t="n">
+        <v>454500</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>4822</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4916</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4792</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4896</v>
+      </c>
+      <c r="F241" t="n">
+        <v>454500</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>4772</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4807</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4737</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4777</v>
+      </c>
+      <c r="F242" t="n">
+        <v>314900</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>4772</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4807</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4737</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4777</v>
+      </c>
+      <c r="F243" t="n">
+        <v>314900</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>4737</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4782</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4673</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4782</v>
+      </c>
+      <c r="F244" t="n">
+        <v>308200</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>4737</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4782</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4673</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4782</v>
+      </c>
+      <c r="F245" t="n">
+        <v>308200</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>4872</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4872</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4752</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4767</v>
+      </c>
+      <c r="F246" t="n">
+        <v>494500</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>4872</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4872</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4752</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4767</v>
+      </c>
+      <c r="F247" t="n">
+        <v>494500</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>5060</v>
+      </c>
+      <c r="C248" t="n">
+        <v>5070</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4867</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4921</v>
+      </c>
+      <c r="F248" t="n">
+        <v>428500</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
           <t>2025-08-18</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B249" t="n">
         <v>4862</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C249" t="n">
         <v>4991</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D249" t="n">
         <v>4837</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E249" t="n">
         <v>4981</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F249" t="n">
         <v>529200</v>
       </c>
     </row>
